--- a/src/data/France.xlsx
+++ b/src/data/France.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\윤덕건\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\윤덕건\Desktop\1줄 설명\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2186486F-6293-414F-91EE-439C1C14A3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6DED24-D13C-40E0-B8EA-08216C54A489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="7455" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2014,9 +2014,6 @@
     <t>칼랑크 국립공원 (Calanques National Park)</t>
   </si>
   <si>
-    <t>사진 명소</t>
-  </si>
-  <si>
     <t>칼랑크 국립공원은 마르세유 주변에 위치한 아름다운 자연 보호지역입니다. 이 국립공원은 세계적으로 유명한 해안 경관과 깊은 협곡으로 유명하며, 야생 동물과 다양한 식물 종류가 서식합니다. 공원 내에는 다양한 등산로와 해변이 있어 산책이나 하이킹을 즐길 수 있으며, 맑은 바다에서 수영이나 스노클링을 즐길 수도 있습니다. 칼랑크 국립공원은 자연을 사랑하는 사람들에게 멋진 경험과 휴식을 제공하는 곳으로 알려져 있습니다.</t>
   </si>
   <si>
@@ -2183,6 +2180,9 @@
   </si>
   <si>
     <t>브록샤 스트리트(Quai des Bateliers)는 스트라스부르의 중심에 위치한 강변 도로로, 라인 강을 따라 활기찬 활동과 아름다운 전망을 제공합니다. 이 거리는 보트 및 강줄기를 탐험하기 위한 출발점으로도 알려져 있으며, 강변을 따라 산책하거나 자전거를 타며 스트라스부르의 아름다운 풍경을 감상할 수 있습니다. 브록샤 스트리트는 유명한 레스토랑, 카페, 상점 등 다양한 엔터테인먼트 시설과 함께 문화와 역사적인 명소를 제공합니다. 강변의 아름다운 건물들과 전통적인 거리 경관은 방문객들에게 스트라스부르의 독특한 매력을 느낄 수 있는 기회를 제공합니다.</t>
+  </si>
+  <si>
+    <t>사진명소</t>
   </si>
 </sst>
 </file>
@@ -2556,8 +2556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1491"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="H214" sqref="H214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -8241,7 +8241,7 @@
         <v>4</v>
       </c>
       <c r="D219" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E219">
         <v>43.213999999999999</v>
@@ -8253,7 +8253,7 @@
         <v>278</v>
       </c>
       <c r="H219" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.45">
@@ -8261,13 +8261,13 @@
         <v>57</v>
       </c>
       <c r="B220" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C220">
         <v>3</v>
       </c>
       <c r="D220" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E220">
         <v>43.262700000000002</v>
@@ -8276,10 +8276,10 @@
         <v>5.3837999999999999</v>
       </c>
       <c r="G220" t="s">
+        <v>666</v>
+      </c>
+      <c r="H220" t="s">
         <v>667</v>
-      </c>
-      <c r="H220" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.45">
@@ -8287,13 +8287,13 @@
         <v>57</v>
       </c>
       <c r="B221" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C221">
         <v>4</v>
       </c>
       <c r="D221" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E221">
         <v>43.314500000000002</v>
@@ -8305,7 +8305,7 @@
         <v>85</v>
       </c>
       <c r="H221" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.45">
@@ -8313,13 +8313,13 @@
         <v>57</v>
       </c>
       <c r="B222" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C222">
         <v>4</v>
       </c>
       <c r="D222" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E222">
         <v>45.762700000000002</v>
@@ -8328,10 +8328,10 @@
         <v>4.8277999999999999</v>
       </c>
       <c r="G222" t="s">
+        <v>671</v>
+      </c>
+      <c r="H222" t="s">
         <v>672</v>
-      </c>
-      <c r="H222" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.45">
@@ -8339,13 +8339,13 @@
         <v>57</v>
       </c>
       <c r="B223" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C223">
         <v>5</v>
       </c>
       <c r="D223" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E223">
         <v>45.758099999999999</v>
@@ -8354,10 +8354,10 @@
         <v>4.8183999999999996</v>
       </c>
       <c r="G223" t="s">
+        <v>674</v>
+      </c>
+      <c r="H223" t="s">
         <v>675</v>
-      </c>
-      <c r="H223" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.45">
@@ -8365,13 +8365,13 @@
         <v>57</v>
       </c>
       <c r="B224" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C224">
         <v>4</v>
       </c>
       <c r="D224" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E224">
         <v>45.775300000000001</v>
@@ -8380,10 +8380,10 @@
         <v>4.8319999999999999</v>
       </c>
       <c r="G224" t="s">
+        <v>677</v>
+      </c>
+      <c r="H224" t="s">
         <v>678</v>
-      </c>
-      <c r="H224" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.45">
@@ -8391,13 +8391,13 @@
         <v>57</v>
       </c>
       <c r="B225" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C225">
         <v>4</v>
       </c>
       <c r="D225" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E225">
         <v>45.777200000000001</v>
@@ -8406,10 +8406,10 @@
         <v>4.8531000000000004</v>
       </c>
       <c r="G225" t="s">
+        <v>680</v>
+      </c>
+      <c r="H225" t="s">
         <v>681</v>
-      </c>
-      <c r="H225" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.45">
@@ -8417,13 +8417,13 @@
         <v>58</v>
       </c>
       <c r="B226" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C226">
         <v>4</v>
       </c>
       <c r="D226" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E226">
         <v>45.733899999999998</v>
@@ -8432,10 +8432,10 @@
         <v>4.8188000000000004</v>
       </c>
       <c r="G226" t="s">
+        <v>683</v>
+      </c>
+      <c r="H226" t="s">
         <v>684</v>
-      </c>
-      <c r="H226" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.45">
@@ -8443,13 +8443,13 @@
         <v>59</v>
       </c>
       <c r="B227" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C227">
         <v>4</v>
       </c>
       <c r="D227" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E227">
         <v>45.767499999999998</v>
@@ -8458,10 +8458,10 @@
         <v>4.8349000000000002</v>
       </c>
       <c r="G227" t="s">
+        <v>686</v>
+      </c>
+      <c r="H227" t="s">
         <v>687</v>
-      </c>
-      <c r="H227" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.45">
@@ -8469,13 +8469,13 @@
         <v>59</v>
       </c>
       <c r="B228" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C228">
         <v>4</v>
       </c>
       <c r="D228" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E228">
         <v>45.757899999999999</v>
@@ -8487,7 +8487,7 @@
         <v>486</v>
       </c>
       <c r="H228" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.45">
@@ -8495,13 +8495,13 @@
         <v>59</v>
       </c>
       <c r="B229" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C229">
         <v>3</v>
       </c>
       <c r="D229" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E229">
         <v>45.758099999999999</v>
@@ -8510,10 +8510,10 @@
         <v>4.8331</v>
       </c>
       <c r="G229" t="s">
+        <v>691</v>
+      </c>
+      <c r="H229" t="s">
         <v>692</v>
-      </c>
-      <c r="H229" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.45">
@@ -8521,13 +8521,13 @@
         <v>59</v>
       </c>
       <c r="B230" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C230">
         <v>5</v>
       </c>
       <c r="D230" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E230">
         <v>45.762500000000003</v>
@@ -8536,10 +8536,10 @@
         <v>4.8224999999999998</v>
       </c>
       <c r="G230" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H230" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.45">
@@ -8547,13 +8547,13 @@
         <v>59</v>
       </c>
       <c r="B231" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C231">
         <v>4</v>
       </c>
       <c r="D231" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E231">
         <v>43.693199999999997</v>
@@ -8562,10 +8562,10 @@
         <v>7.2771999999999997</v>
       </c>
       <c r="G231" t="s">
+        <v>696</v>
+      </c>
+      <c r="H231" t="s">
         <v>697</v>
-      </c>
-      <c r="H231" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.45">
@@ -8573,13 +8573,13 @@
         <v>60</v>
       </c>
       <c r="B232" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C232">
         <v>5</v>
       </c>
       <c r="D232" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E232">
         <v>43.696599999999997</v>
@@ -8591,7 +8591,7 @@
         <v>299</v>
       </c>
       <c r="H232" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.45">
@@ -8599,13 +8599,13 @@
         <v>61</v>
       </c>
       <c r="B233" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C233">
         <v>5</v>
       </c>
       <c r="D233" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E233">
         <v>44.840400000000002</v>
@@ -8614,10 +8614,10 @@
         <v>-0.56999999999999995</v>
       </c>
       <c r="G233" t="s">
+        <v>701</v>
+      </c>
+      <c r="H233" t="s">
         <v>702</v>
-      </c>
-      <c r="H233" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.45">
@@ -8625,13 +8625,13 @@
         <v>61</v>
       </c>
       <c r="B234" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C234">
         <v>4</v>
       </c>
       <c r="D234" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E234">
         <v>45.764699999999998</v>
@@ -8640,10 +8640,10 @@
         <v>4.8369</v>
       </c>
       <c r="G234" t="s">
+        <v>704</v>
+      </c>
+      <c r="H234" t="s">
         <v>705</v>
-      </c>
-      <c r="H234" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.45">
@@ -8651,13 +8651,13 @@
         <v>61</v>
       </c>
       <c r="B235" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C235">
         <v>4</v>
       </c>
       <c r="D235" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E235">
         <v>43.604500000000002</v>
@@ -8669,7 +8669,7 @@
         <v>628</v>
       </c>
       <c r="H235" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.45">
@@ -8677,13 +8677,13 @@
         <v>61</v>
       </c>
       <c r="B236" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C236">
         <v>4</v>
       </c>
       <c r="D236" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E236">
         <v>43.666499999999999</v>
@@ -8692,10 +8692,10 @@
         <v>7.2244999999999999</v>
       </c>
       <c r="G236" t="s">
+        <v>709</v>
+      </c>
+      <c r="H236" t="s">
         <v>710</v>
-      </c>
-      <c r="H236" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.45">
@@ -8703,13 +8703,13 @@
         <v>62</v>
       </c>
       <c r="B237" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C237">
         <v>3</v>
       </c>
       <c r="D237" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E237">
         <v>48.583799999999997</v>
@@ -8718,10 +8718,10 @@
         <v>7.7473999999999998</v>
       </c>
       <c r="G237" t="s">
+        <v>712</v>
+      </c>
+      <c r="H237" t="s">
         <v>713</v>
-      </c>
-      <c r="H237" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.45">
@@ -8729,13 +8729,13 @@
         <v>62</v>
       </c>
       <c r="B238" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C238">
         <v>3</v>
       </c>
       <c r="D238" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E238">
         <v>43.6691</v>
@@ -8744,10 +8744,10 @@
         <v>4.6382000000000003</v>
       </c>
       <c r="G238" t="s">
+        <v>715</v>
+      </c>
+      <c r="H238" t="s">
         <v>716</v>
-      </c>
-      <c r="H238" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.45">
@@ -8755,13 +8755,13 @@
         <v>62</v>
       </c>
       <c r="B239" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C239">
         <v>3</v>
       </c>
       <c r="D239" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E239">
         <v>48.584800000000001</v>
@@ -8770,10 +8770,10 @@
         <v>7.7542999999999997</v>
       </c>
       <c r="G239" t="s">
+        <v>718</v>
+      </c>
+      <c r="H239" t="s">
         <v>719</v>
-      </c>
-      <c r="H239" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.45">
@@ -9587,13 +9587,13 @@
         <v>64</v>
       </c>
       <c r="B271" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C271">
         <v>5</v>
       </c>
       <c r="D271" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E271">
         <v>45.762500000000003</v>
@@ -9602,10 +9602,10 @@
         <v>4.8224999999999998</v>
       </c>
       <c r="G271" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H271" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.45">
@@ -9613,13 +9613,13 @@
         <v>64</v>
       </c>
       <c r="B272" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C272">
         <v>5</v>
       </c>
       <c r="D272" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E272">
         <v>44.840400000000002</v>
@@ -9628,10 +9628,10 @@
         <v>-0.56999999999999995</v>
       </c>
       <c r="G272" t="s">
+        <v>701</v>
+      </c>
+      <c r="H272" t="s">
         <v>702</v>
-      </c>
-      <c r="H272" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.45">
@@ -10081,13 +10081,13 @@
         <v>65</v>
       </c>
       <c r="B290" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C290">
         <v>4</v>
       </c>
       <c r="D290" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E290">
         <v>43.604500000000002</v>
@@ -10099,7 +10099,7 @@
         <v>628</v>
       </c>
       <c r="H290" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.45">
@@ -10497,13 +10497,13 @@
         <v>66</v>
       </c>
       <c r="B306" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C306">
         <v>5</v>
       </c>
       <c r="D306" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E306">
         <v>45.762500000000003</v>
@@ -10512,10 +10512,10 @@
         <v>4.8224999999999998</v>
       </c>
       <c r="G306" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H306" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.45">
@@ -10523,13 +10523,13 @@
         <v>66</v>
       </c>
       <c r="B307" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C307">
         <v>4</v>
       </c>
       <c r="D307" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E307">
         <v>45.764699999999998</v>
@@ -10538,10 +10538,10 @@
         <v>4.8369</v>
       </c>
       <c r="G307" t="s">
+        <v>704</v>
+      </c>
+      <c r="H307" t="s">
         <v>705</v>
-      </c>
-      <c r="H307" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.45">
@@ -11355,13 +11355,13 @@
         <v>68</v>
       </c>
       <c r="B339" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C339">
         <v>5</v>
       </c>
       <c r="D339" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E339">
         <v>45.762500000000003</v>
@@ -11370,10 +11370,10 @@
         <v>4.8224999999999998</v>
       </c>
       <c r="G339" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H339" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.45">
@@ -11381,13 +11381,13 @@
         <v>68</v>
       </c>
       <c r="B340" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C340">
         <v>5</v>
       </c>
       <c r="D340" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E340">
         <v>44.840400000000002</v>
@@ -11396,10 +11396,10 @@
         <v>-0.56999999999999995</v>
       </c>
       <c r="G340" t="s">
+        <v>701</v>
+      </c>
+      <c r="H340" t="s">
         <v>702</v>
-      </c>
-      <c r="H340" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.45">
@@ -12681,13 +12681,13 @@
         <v>71</v>
       </c>
       <c r="B390" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C390">
         <v>5</v>
       </c>
       <c r="D390" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E390">
         <v>45.762500000000003</v>
@@ -12696,10 +12696,10 @@
         <v>4.8224999999999998</v>
       </c>
       <c r="G390" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H390" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.45">
@@ -12707,13 +12707,13 @@
         <v>71</v>
       </c>
       <c r="B391" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C391">
         <v>5</v>
       </c>
       <c r="D391" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E391">
         <v>44.840400000000002</v>
@@ -12722,10 +12722,10 @@
         <v>-0.56999999999999995</v>
       </c>
       <c r="G391" t="s">
+        <v>701</v>
+      </c>
+      <c r="H391" t="s">
         <v>702</v>
-      </c>
-      <c r="H391" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.45">
@@ -12733,13 +12733,13 @@
         <v>71</v>
       </c>
       <c r="B392" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C392">
         <v>4</v>
       </c>
       <c r="D392" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E392">
         <v>45.764699999999998</v>
@@ -12748,10 +12748,10 @@
         <v>4.8369</v>
       </c>
       <c r="G392" t="s">
+        <v>704</v>
+      </c>
+      <c r="H392" t="s">
         <v>705</v>
-      </c>
-      <c r="H392" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.45">
@@ -13565,13 +13565,13 @@
         <v>73</v>
       </c>
       <c r="B424" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C424">
         <v>5</v>
       </c>
       <c r="D424" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E424">
         <v>45.762500000000003</v>
@@ -13580,10 +13580,10 @@
         <v>4.8224999999999998</v>
       </c>
       <c r="G424" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H424" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.45">
@@ -13591,13 +13591,13 @@
         <v>73</v>
       </c>
       <c r="B425" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C425">
         <v>4</v>
       </c>
       <c r="D425" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E425">
         <v>43.604500000000002</v>
@@ -13609,7 +13609,7 @@
         <v>628</v>
       </c>
       <c r="H425" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.45">
@@ -14397,13 +14397,13 @@
         <v>75</v>
       </c>
       <c r="B456" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C456">
         <v>5</v>
       </c>
       <c r="D456" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E456">
         <v>45.762500000000003</v>
@@ -14412,10 +14412,10 @@
         <v>4.8224999999999998</v>
       </c>
       <c r="G456" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H456" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.45">
@@ -14423,13 +14423,13 @@
         <v>75</v>
       </c>
       <c r="B457" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C457">
         <v>5</v>
       </c>
       <c r="D457" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E457">
         <v>44.840400000000002</v>
@@ -14438,10 +14438,10 @@
         <v>-0.56999999999999995</v>
       </c>
       <c r="G457" t="s">
+        <v>701</v>
+      </c>
+      <c r="H457" t="s">
         <v>702</v>
-      </c>
-      <c r="H457" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.45">
@@ -15229,13 +15229,13 @@
         <v>77</v>
       </c>
       <c r="B488" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C488">
         <v>5</v>
       </c>
       <c r="D488" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E488">
         <v>45.762500000000003</v>
@@ -15244,10 +15244,10 @@
         <v>4.8224999999999998</v>
       </c>
       <c r="G488" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H488" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.45">
@@ -15255,13 +15255,13 @@
         <v>77</v>
       </c>
       <c r="B489" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C489">
         <v>5</v>
       </c>
       <c r="D489" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E489">
         <v>44.840400000000002</v>
@@ -15270,10 +15270,10 @@
         <v>-0.56999999999999995</v>
       </c>
       <c r="G489" t="s">
+        <v>701</v>
+      </c>
+      <c r="H489" t="s">
         <v>702</v>
-      </c>
-      <c r="H489" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.45">
@@ -15281,13 +15281,13 @@
         <v>77</v>
       </c>
       <c r="B490" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C490">
         <v>4</v>
       </c>
       <c r="D490" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E490">
         <v>45.764699999999998</v>
@@ -15296,10 +15296,10 @@
         <v>4.8369</v>
       </c>
       <c r="G490" t="s">
+        <v>704</v>
+      </c>
+      <c r="H490" t="s">
         <v>705</v>
-      </c>
-      <c r="H490" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.45">
@@ -15489,13 +15489,13 @@
         <v>78</v>
       </c>
       <c r="B498" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C498">
         <v>4</v>
       </c>
       <c r="D498" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E498">
         <v>45.767499999999998</v>
@@ -15504,10 +15504,10 @@
         <v>4.8349000000000002</v>
       </c>
       <c r="G498" t="s">
+        <v>686</v>
+      </c>
+      <c r="H498" t="s">
         <v>687</v>
-      </c>
-      <c r="H498" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.45">
@@ -15515,13 +15515,13 @@
         <v>78</v>
       </c>
       <c r="B499" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C499">
         <v>4</v>
       </c>
       <c r="D499" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E499">
         <v>45.757899999999999</v>
@@ -15533,7 +15533,7 @@
         <v>486</v>
       </c>
       <c r="H499" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.45">
@@ -15541,13 +15541,13 @@
         <v>78</v>
       </c>
       <c r="B500" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C500">
         <v>3</v>
       </c>
       <c r="D500" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E500">
         <v>45.758099999999999</v>
@@ -15556,10 +15556,10 @@
         <v>4.8331</v>
       </c>
       <c r="G500" t="s">
+        <v>691</v>
+      </c>
+      <c r="H500" t="s">
         <v>692</v>
-      </c>
-      <c r="H500" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.45">
@@ -15567,13 +15567,13 @@
         <v>78</v>
       </c>
       <c r="B501" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C501">
         <v>5</v>
       </c>
       <c r="D501" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E501">
         <v>45.762500000000003</v>
@@ -15582,10 +15582,10 @@
         <v>4.8224999999999998</v>
       </c>
       <c r="G501" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H501" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.45">
@@ -15593,13 +15593,13 @@
         <v>78</v>
       </c>
       <c r="B502" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C502">
         <v>4</v>
       </c>
       <c r="D502" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E502">
         <v>45.764699999999998</v>
@@ -15608,10 +15608,10 @@
         <v>4.8369</v>
       </c>
       <c r="G502" t="s">
+        <v>704</v>
+      </c>
+      <c r="H502" t="s">
         <v>705</v>
-      </c>
-      <c r="H502" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.45">
@@ -15619,13 +15619,13 @@
         <v>78</v>
       </c>
       <c r="B503" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C503">
         <v>4</v>
       </c>
       <c r="D503" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E503">
         <v>43.604500000000002</v>
@@ -15637,7 +15637,7 @@
         <v>628</v>
       </c>
       <c r="H503" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.45">
@@ -15645,13 +15645,13 @@
         <v>78</v>
       </c>
       <c r="B504" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C504">
         <v>4</v>
       </c>
       <c r="D504" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E504">
         <v>43.666499999999999</v>
@@ -15660,10 +15660,10 @@
         <v>7.2244999999999999</v>
       </c>
       <c r="G504" t="s">
+        <v>709</v>
+      </c>
+      <c r="H504" t="s">
         <v>710</v>
-      </c>
-      <c r="H504" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.45">
@@ -15957,13 +15957,13 @@
         <v>79</v>
       </c>
       <c r="B516" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C516">
         <v>3</v>
       </c>
       <c r="D516" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E516">
         <v>43.262700000000002</v>
@@ -15972,10 +15972,10 @@
         <v>5.3837999999999999</v>
       </c>
       <c r="G516" t="s">
+        <v>666</v>
+      </c>
+      <c r="H516" t="s">
         <v>667</v>
-      </c>
-      <c r="H516" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.45">
@@ -15983,13 +15983,13 @@
         <v>79</v>
       </c>
       <c r="B517" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C517">
         <v>4</v>
       </c>
       <c r="D517" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E517">
         <v>43.314500000000002</v>
@@ -16001,7 +16001,7 @@
         <v>85</v>
       </c>
       <c r="H517" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.45">
@@ -16009,13 +16009,13 @@
         <v>79</v>
       </c>
       <c r="B518" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C518">
         <v>4</v>
       </c>
       <c r="D518" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E518">
         <v>45.762700000000002</v>
@@ -16024,10 +16024,10 @@
         <v>4.8277999999999999</v>
       </c>
       <c r="G518" t="s">
+        <v>671</v>
+      </c>
+      <c r="H518" t="s">
         <v>672</v>
-      </c>
-      <c r="H518" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.45">
@@ -16035,13 +16035,13 @@
         <v>79</v>
       </c>
       <c r="B519" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C519">
         <v>5</v>
       </c>
       <c r="D519" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E519">
         <v>45.758099999999999</v>
@@ -16050,10 +16050,10 @@
         <v>4.8183999999999996</v>
       </c>
       <c r="G519" t="s">
+        <v>674</v>
+      </c>
+      <c r="H519" t="s">
         <v>675</v>
-      </c>
-      <c r="H519" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.45">
@@ -16061,13 +16061,13 @@
         <v>79</v>
       </c>
       <c r="B520" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C520">
         <v>3</v>
       </c>
       <c r="D520" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E520">
         <v>45.758099999999999</v>
@@ -16076,10 +16076,10 @@
         <v>4.8331</v>
       </c>
       <c r="G520" t="s">
+        <v>691</v>
+      </c>
+      <c r="H520" t="s">
         <v>692</v>
-      </c>
-      <c r="H520" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.45">
@@ -16087,13 +16087,13 @@
         <v>79</v>
       </c>
       <c r="B521" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C521">
         <v>5</v>
       </c>
       <c r="D521" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E521">
         <v>45.762500000000003</v>
@@ -16102,10 +16102,10 @@
         <v>4.8224999999999998</v>
       </c>
       <c r="G521" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H521" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.45">
@@ -16113,13 +16113,13 @@
         <v>79</v>
       </c>
       <c r="B522" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C522">
         <v>4</v>
       </c>
       <c r="D522" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E522">
         <v>43.693199999999997</v>
@@ -16128,10 +16128,10 @@
         <v>7.2771999999999997</v>
       </c>
       <c r="G522" t="s">
+        <v>696</v>
+      </c>
+      <c r="H522" t="s">
         <v>697</v>
-      </c>
-      <c r="H522" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.45">
@@ -17725,13 +17725,13 @@
         <v>83</v>
       </c>
       <c r="B584" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C584">
         <v>5</v>
       </c>
       <c r="D584" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E584">
         <v>45.762500000000003</v>
@@ -17740,10 +17740,10 @@
         <v>4.8224999999999998</v>
       </c>
       <c r="G584" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H584" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="585" spans="1:8" x14ac:dyDescent="0.45">
@@ -17751,13 +17751,13 @@
         <v>83</v>
       </c>
       <c r="B585" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C585">
         <v>5</v>
       </c>
       <c r="D585" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E585">
         <v>44.840400000000002</v>
@@ -17766,10 +17766,10 @@
         <v>-0.56999999999999995</v>
       </c>
       <c r="G585" t="s">
+        <v>701</v>
+      </c>
+      <c r="H585" t="s">
         <v>702</v>
-      </c>
-      <c r="H585" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="586" spans="1:8" x14ac:dyDescent="0.45">
@@ -17777,13 +17777,13 @@
         <v>83</v>
       </c>
       <c r="B586" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C586">
         <v>4</v>
       </c>
       <c r="D586" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E586">
         <v>45.764699999999998</v>
@@ -17792,10 +17792,10 @@
         <v>4.8369</v>
       </c>
       <c r="G586" t="s">
+        <v>704</v>
+      </c>
+      <c r="H586" t="s">
         <v>705</v>
-      </c>
-      <c r="H586" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="587" spans="1:8" x14ac:dyDescent="0.45">
@@ -18583,13 +18583,13 @@
         <v>85</v>
       </c>
       <c r="B617" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C617">
         <v>4</v>
       </c>
       <c r="D617" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E617">
         <v>45.764699999999998</v>
@@ -18598,10 +18598,10 @@
         <v>4.8369</v>
       </c>
       <c r="G617" t="s">
+        <v>704</v>
+      </c>
+      <c r="H617" t="s">
         <v>705</v>
-      </c>
-      <c r="H617" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="618" spans="1:8" x14ac:dyDescent="0.45">
@@ -18609,13 +18609,13 @@
         <v>85</v>
       </c>
       <c r="B618" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C618">
         <v>4</v>
       </c>
       <c r="D618" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E618">
         <v>43.604500000000002</v>
@@ -18627,7 +18627,7 @@
         <v>628</v>
       </c>
       <c r="H618" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="619" spans="1:8" x14ac:dyDescent="0.45">
@@ -20507,13 +20507,13 @@
         <v>90</v>
       </c>
       <c r="B691" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C691">
         <v>4</v>
       </c>
       <c r="D691" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E691">
         <v>45.764699999999998</v>
@@ -20522,10 +20522,10 @@
         <v>4.8369</v>
       </c>
       <c r="G691" t="s">
+        <v>704</v>
+      </c>
+      <c r="H691" t="s">
         <v>705</v>
-      </c>
-      <c r="H691" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="692" spans="1:8" x14ac:dyDescent="0.45">
@@ -20533,13 +20533,13 @@
         <v>90</v>
       </c>
       <c r="B692" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C692">
         <v>4</v>
       </c>
       <c r="D692" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E692">
         <v>43.604500000000002</v>
@@ -20551,7 +20551,7 @@
         <v>628</v>
       </c>
       <c r="H692" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="693" spans="1:8" x14ac:dyDescent="0.45">
@@ -20923,13 +20923,13 @@
         <v>91</v>
       </c>
       <c r="B707" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C707">
         <v>5</v>
       </c>
       <c r="D707" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E707">
         <v>45.762500000000003</v>
@@ -20938,10 +20938,10 @@
         <v>4.8224999999999998</v>
       </c>
       <c r="G707" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H707" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="708" spans="1:8" x14ac:dyDescent="0.45">
@@ -21371,7 +21371,7 @@
         <v>4</v>
       </c>
       <c r="D724" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E724">
         <v>43.213999999999999</v>
@@ -21383,7 +21383,7 @@
         <v>278</v>
       </c>
       <c r="H724" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="725" spans="1:8" x14ac:dyDescent="0.45">
@@ -21391,13 +21391,13 @@
         <v>93</v>
       </c>
       <c r="B725" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C725">
         <v>3</v>
       </c>
       <c r="D725" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E725">
         <v>43.262700000000002</v>
@@ -21406,10 +21406,10 @@
         <v>5.3837999999999999</v>
       </c>
       <c r="G725" t="s">
+        <v>666</v>
+      </c>
+      <c r="H725" t="s">
         <v>667</v>
-      </c>
-      <c r="H725" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="726" spans="1:8" x14ac:dyDescent="0.45">
@@ -21417,13 +21417,13 @@
         <v>93</v>
       </c>
       <c r="B726" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C726">
         <v>4</v>
       </c>
       <c r="D726" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E726">
         <v>43.314500000000002</v>
@@ -21435,7 +21435,7 @@
         <v>85</v>
       </c>
       <c r="H726" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="727" spans="1:8" x14ac:dyDescent="0.45">
@@ -21443,13 +21443,13 @@
         <v>93</v>
       </c>
       <c r="B727" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C727">
         <v>5</v>
       </c>
       <c r="D727" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E727">
         <v>44.840400000000002</v>
@@ -21458,10 +21458,10 @@
         <v>-0.56999999999999995</v>
       </c>
       <c r="G727" t="s">
+        <v>701</v>
+      </c>
+      <c r="H727" t="s">
         <v>702</v>
-      </c>
-      <c r="H727" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="728" spans="1:8" x14ac:dyDescent="0.45">
@@ -21469,13 +21469,13 @@
         <v>93</v>
       </c>
       <c r="B728" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C728">
         <v>4</v>
       </c>
       <c r="D728" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E728">
         <v>45.764699999999998</v>
@@ -21484,10 +21484,10 @@
         <v>4.8369</v>
       </c>
       <c r="G728" t="s">
+        <v>704</v>
+      </c>
+      <c r="H728" t="s">
         <v>705</v>
-      </c>
-      <c r="H728" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="729" spans="1:8" x14ac:dyDescent="0.45">
@@ -21885,13 +21885,13 @@
         <v>94</v>
       </c>
       <c r="B744" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C744">
         <v>4</v>
       </c>
       <c r="D744" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E744">
         <v>45.757899999999999</v>
@@ -21903,7 +21903,7 @@
         <v>486</v>
       </c>
       <c r="H744" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="745" spans="1:8" x14ac:dyDescent="0.45">
@@ -21911,13 +21911,13 @@
         <v>94</v>
       </c>
       <c r="B745" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C745">
         <v>3</v>
       </c>
       <c r="D745" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E745">
         <v>45.758099999999999</v>
@@ -21926,10 +21926,10 @@
         <v>4.8331</v>
       </c>
       <c r="G745" t="s">
+        <v>691</v>
+      </c>
+      <c r="H745" t="s">
         <v>692</v>
-      </c>
-      <c r="H745" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="746" spans="1:8" x14ac:dyDescent="0.45">
@@ -21937,13 +21937,13 @@
         <v>94</v>
       </c>
       <c r="B746" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C746">
         <v>5</v>
       </c>
       <c r="D746" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E746">
         <v>45.762500000000003</v>
@@ -21952,10 +21952,10 @@
         <v>4.8224999999999998</v>
       </c>
       <c r="G746" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H746" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="747" spans="1:8" x14ac:dyDescent="0.45">
@@ -21963,13 +21963,13 @@
         <v>94</v>
       </c>
       <c r="B747" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C747">
         <v>4</v>
       </c>
       <c r="D747" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E747">
         <v>43.693199999999997</v>
@@ -21978,10 +21978,10 @@
         <v>7.2771999999999997</v>
       </c>
       <c r="G747" t="s">
+        <v>696</v>
+      </c>
+      <c r="H747" t="s">
         <v>697</v>
-      </c>
-      <c r="H747" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="748" spans="1:8" x14ac:dyDescent="0.45">
@@ -21989,13 +21989,13 @@
         <v>94</v>
       </c>
       <c r="B748" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C748">
         <v>5</v>
       </c>
       <c r="D748" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E748">
         <v>43.696599999999997</v>
@@ -22007,7 +22007,7 @@
         <v>299</v>
       </c>
       <c r="H748" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="749" spans="1:8" x14ac:dyDescent="0.45">
@@ -22015,13 +22015,13 @@
         <v>94</v>
       </c>
       <c r="B749" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C749">
         <v>5</v>
       </c>
       <c r="D749" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E749">
         <v>44.840400000000002</v>
@@ -22030,10 +22030,10 @@
         <v>-0.56999999999999995</v>
       </c>
       <c r="G749" t="s">
+        <v>701</v>
+      </c>
+      <c r="H749" t="s">
         <v>702</v>
-      </c>
-      <c r="H749" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="750" spans="1:8" x14ac:dyDescent="0.45">
@@ -22041,13 +22041,13 @@
         <v>94</v>
       </c>
       <c r="B750" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C750">
         <v>3</v>
       </c>
       <c r="D750" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E750">
         <v>48.583799999999997</v>
@@ -22056,10 +22056,10 @@
         <v>7.7473999999999998</v>
       </c>
       <c r="G750" t="s">
+        <v>712</v>
+      </c>
+      <c r="H750" t="s">
         <v>713</v>
-      </c>
-      <c r="H750" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="751" spans="1:8" x14ac:dyDescent="0.45">
@@ -22067,13 +22067,13 @@
         <v>94</v>
       </c>
       <c r="B751" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C751">
         <v>3</v>
       </c>
       <c r="D751" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E751">
         <v>43.6691</v>
@@ -22082,10 +22082,10 @@
         <v>4.6382000000000003</v>
       </c>
       <c r="G751" t="s">
+        <v>715</v>
+      </c>
+      <c r="H751" t="s">
         <v>716</v>
-      </c>
-      <c r="H751" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="752" spans="1:8" x14ac:dyDescent="0.45">
@@ -24589,13 +24589,13 @@
         <v>100</v>
       </c>
       <c r="B848" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C848">
         <v>5</v>
       </c>
       <c r="D848" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E848">
         <v>44.840400000000002</v>
@@ -24604,10 +24604,10 @@
         <v>-0.56999999999999995</v>
       </c>
       <c r="G848" t="s">
+        <v>701</v>
+      </c>
+      <c r="H848" t="s">
         <v>702</v>
-      </c>
-      <c r="H848" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="849" spans="1:8" x14ac:dyDescent="0.45">
@@ -24615,13 +24615,13 @@
         <v>100</v>
       </c>
       <c r="B849" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C849">
         <v>4</v>
       </c>
       <c r="D849" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E849">
         <v>45.764699999999998</v>
@@ -24630,10 +24630,10 @@
         <v>4.8369</v>
       </c>
       <c r="G849" t="s">
+        <v>704</v>
+      </c>
+      <c r="H849" t="s">
         <v>705</v>
-      </c>
-      <c r="H849" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="850" spans="1:8" x14ac:dyDescent="0.45">
@@ -24641,13 +24641,13 @@
         <v>100</v>
       </c>
       <c r="B850" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C850">
         <v>4</v>
       </c>
       <c r="D850" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E850">
         <v>43.604500000000002</v>
@@ -24659,7 +24659,7 @@
         <v>628</v>
       </c>
       <c r="H850" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="851" spans="1:8" x14ac:dyDescent="0.45">
@@ -25785,13 +25785,13 @@
         <v>103</v>
       </c>
       <c r="B894" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C894">
         <v>4</v>
       </c>
       <c r="D894" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E894">
         <v>45.764699999999998</v>
@@ -25800,10 +25800,10 @@
         <v>4.8369</v>
       </c>
       <c r="G894" t="s">
+        <v>704</v>
+      </c>
+      <c r="H894" t="s">
         <v>705</v>
-      </c>
-      <c r="H894" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="895" spans="1:8" x14ac:dyDescent="0.45">
@@ -25811,13 +25811,13 @@
         <v>103</v>
       </c>
       <c r="B895" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C895">
         <v>4</v>
       </c>
       <c r="D895" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E895">
         <v>43.604500000000002</v>
@@ -25829,7 +25829,7 @@
         <v>628</v>
       </c>
       <c r="H895" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="896" spans="1:8" x14ac:dyDescent="0.45">
@@ -26851,13 +26851,13 @@
         <v>106</v>
       </c>
       <c r="B935" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C935">
         <v>3</v>
       </c>
       <c r="D935" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E935">
         <v>43.262700000000002</v>
@@ -26866,10 +26866,10 @@
         <v>5.3837999999999999</v>
       </c>
       <c r="G935" t="s">
+        <v>666</v>
+      </c>
+      <c r="H935" t="s">
         <v>667</v>
-      </c>
-      <c r="H935" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="936" spans="1:8" x14ac:dyDescent="0.45">
@@ -26877,13 +26877,13 @@
         <v>106</v>
       </c>
       <c r="B936" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C936">
         <v>4</v>
       </c>
       <c r="D936" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E936">
         <v>43.314500000000002</v>
@@ -26895,7 +26895,7 @@
         <v>85</v>
       </c>
       <c r="H936" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="937" spans="1:8" x14ac:dyDescent="0.45">
@@ -26903,13 +26903,13 @@
         <v>106</v>
       </c>
       <c r="B937" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C937">
         <v>4</v>
       </c>
       <c r="D937" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E937">
         <v>45.762700000000002</v>
@@ -26918,10 +26918,10 @@
         <v>4.8277999999999999</v>
       </c>
       <c r="G937" t="s">
+        <v>671</v>
+      </c>
+      <c r="H937" t="s">
         <v>672</v>
-      </c>
-      <c r="H937" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="938" spans="1:8" x14ac:dyDescent="0.45">
@@ -26929,13 +26929,13 @@
         <v>106</v>
       </c>
       <c r="B938" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C938">
         <v>4</v>
       </c>
       <c r="D938" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E938">
         <v>43.693199999999997</v>
@@ -26944,10 +26944,10 @@
         <v>7.2771999999999997</v>
       </c>
       <c r="G938" t="s">
+        <v>696</v>
+      </c>
+      <c r="H938" t="s">
         <v>697</v>
-      </c>
-      <c r="H938" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="939" spans="1:8" x14ac:dyDescent="0.45">
@@ -26955,13 +26955,13 @@
         <v>106</v>
       </c>
       <c r="B939" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C939">
         <v>5</v>
       </c>
       <c r="D939" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E939">
         <v>43.696599999999997</v>
@@ -26973,7 +26973,7 @@
         <v>299</v>
       </c>
       <c r="H939" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="940" spans="1:8" x14ac:dyDescent="0.45">
@@ -26981,13 +26981,13 @@
         <v>106</v>
       </c>
       <c r="B940" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C940">
         <v>5</v>
       </c>
       <c r="D940" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E940">
         <v>44.840400000000002</v>
@@ -26996,10 +26996,10 @@
         <v>-0.56999999999999995</v>
       </c>
       <c r="G940" t="s">
+        <v>701</v>
+      </c>
+      <c r="H940" t="s">
         <v>702</v>
-      </c>
-      <c r="H940" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="941" spans="1:8" x14ac:dyDescent="0.45">
@@ -27007,13 +27007,13 @@
         <v>106</v>
       </c>
       <c r="B941" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C941">
         <v>4</v>
       </c>
       <c r="D941" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E941">
         <v>45.764699999999998</v>
@@ -27022,10 +27022,10 @@
         <v>4.8369</v>
       </c>
       <c r="G941" t="s">
+        <v>704</v>
+      </c>
+      <c r="H941" t="s">
         <v>705</v>
-      </c>
-      <c r="H941" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="942" spans="1:8" x14ac:dyDescent="0.45">
@@ -27111,13 +27111,13 @@
         <v>107</v>
       </c>
       <c r="B945" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C945">
         <v>4</v>
       </c>
       <c r="D945" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E945">
         <v>45.767499999999998</v>
@@ -27126,10 +27126,10 @@
         <v>4.8349000000000002</v>
       </c>
       <c r="G945" t="s">
+        <v>686</v>
+      </c>
+      <c r="H945" t="s">
         <v>687</v>
-      </c>
-      <c r="H945" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="946" spans="1:8" x14ac:dyDescent="0.45">
@@ -27137,13 +27137,13 @@
         <v>107</v>
       </c>
       <c r="B946" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C946">
         <v>4</v>
       </c>
       <c r="D946" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E946">
         <v>45.757899999999999</v>
@@ -27155,7 +27155,7 @@
         <v>486</v>
       </c>
       <c r="H946" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="947" spans="1:8" x14ac:dyDescent="0.45">
@@ -27163,13 +27163,13 @@
         <v>107</v>
       </c>
       <c r="B947" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C947">
         <v>3</v>
       </c>
       <c r="D947" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E947">
         <v>45.758099999999999</v>
@@ -27178,10 +27178,10 @@
         <v>4.8331</v>
       </c>
       <c r="G947" t="s">
+        <v>691</v>
+      </c>
+      <c r="H947" t="s">
         <v>692</v>
-      </c>
-      <c r="H947" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="948" spans="1:8" x14ac:dyDescent="0.45">
@@ -27189,13 +27189,13 @@
         <v>107</v>
       </c>
       <c r="B948" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C948">
         <v>5</v>
       </c>
       <c r="D948" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E948">
         <v>45.762500000000003</v>
@@ -27204,10 +27204,10 @@
         <v>4.8224999999999998</v>
       </c>
       <c r="G948" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H948" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="949" spans="1:8" x14ac:dyDescent="0.45">
@@ -27215,13 +27215,13 @@
         <v>107</v>
       </c>
       <c r="B949" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C949">
         <v>3</v>
       </c>
       <c r="D949" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E949">
         <v>48.583799999999997</v>
@@ -27230,10 +27230,10 @@
         <v>7.7473999999999998</v>
       </c>
       <c r="G949" t="s">
+        <v>712</v>
+      </c>
+      <c r="H949" t="s">
         <v>713</v>
-      </c>
-      <c r="H949" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="950" spans="1:8" x14ac:dyDescent="0.45">
@@ -27241,13 +27241,13 @@
         <v>107</v>
       </c>
       <c r="B950" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C950">
         <v>3</v>
       </c>
       <c r="D950" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E950">
         <v>43.6691</v>
@@ -27256,10 +27256,10 @@
         <v>4.6382000000000003</v>
       </c>
       <c r="G950" t="s">
+        <v>715</v>
+      </c>
+      <c r="H950" t="s">
         <v>716</v>
-      </c>
-      <c r="H950" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="951" spans="1:8" x14ac:dyDescent="0.45">
@@ -29555,13 +29555,13 @@
         <v>112</v>
       </c>
       <c r="B1039" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C1039">
         <v>4</v>
       </c>
       <c r="D1039" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1039">
         <v>45.764699999999998</v>
@@ -29570,10 +29570,10 @@
         <v>4.8369</v>
       </c>
       <c r="G1039" t="s">
+        <v>704</v>
+      </c>
+      <c r="H1039" t="s">
         <v>705</v>
-      </c>
-      <c r="H1039" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="1040" spans="1:8" x14ac:dyDescent="0.45">
@@ -29581,13 +29581,13 @@
         <v>112</v>
       </c>
       <c r="B1040" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C1040">
         <v>4</v>
       </c>
       <c r="D1040" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1040">
         <v>43.604500000000002</v>
@@ -29599,7 +29599,7 @@
         <v>628</v>
       </c>
       <c r="H1040" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1041" spans="1:8" x14ac:dyDescent="0.45">
@@ -30387,13 +30387,13 @@
         <v>114</v>
       </c>
       <c r="B1071" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C1071">
         <v>5</v>
       </c>
       <c r="D1071" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1071">
         <v>45.762500000000003</v>
@@ -30402,10 +30402,10 @@
         <v>4.8224999999999998</v>
       </c>
       <c r="G1071" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1071" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="1072" spans="1:8" x14ac:dyDescent="0.45">
@@ -30413,13 +30413,13 @@
         <v>114</v>
       </c>
       <c r="B1072" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C1072">
         <v>5</v>
       </c>
       <c r="D1072" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1072">
         <v>44.840400000000002</v>
@@ -30428,10 +30428,10 @@
         <v>-0.56999999999999995</v>
       </c>
       <c r="G1072" t="s">
+        <v>701</v>
+      </c>
+      <c r="H1072" t="s">
         <v>702</v>
-      </c>
-      <c r="H1072" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="1073" spans="1:8" x14ac:dyDescent="0.45">
@@ -30933,13 +30933,13 @@
         <v>116</v>
       </c>
       <c r="B1092" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C1092">
         <v>5</v>
       </c>
       <c r="D1092" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1092">
         <v>45.758099999999999</v>
@@ -30948,10 +30948,10 @@
         <v>4.8183999999999996</v>
       </c>
       <c r="G1092" t="s">
+        <v>674</v>
+      </c>
+      <c r="H1092" t="s">
         <v>675</v>
-      </c>
-      <c r="H1092" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="1093" spans="1:8" x14ac:dyDescent="0.45">
@@ -30959,13 +30959,13 @@
         <v>116</v>
       </c>
       <c r="B1093" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C1093">
         <v>4</v>
       </c>
       <c r="D1093" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1093">
         <v>45.775300000000001</v>
@@ -30974,10 +30974,10 @@
         <v>4.8319999999999999</v>
       </c>
       <c r="G1093" t="s">
+        <v>677</v>
+      </c>
+      <c r="H1093" t="s">
         <v>678</v>
-      </c>
-      <c r="H1093" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="1094" spans="1:8" x14ac:dyDescent="0.45">
@@ -30985,13 +30985,13 @@
         <v>116</v>
       </c>
       <c r="B1094" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C1094">
         <v>5</v>
       </c>
       <c r="D1094" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1094">
         <v>44.840400000000002</v>
@@ -31000,10 +31000,10 @@
         <v>-0.56999999999999995</v>
       </c>
       <c r="G1094" t="s">
+        <v>701</v>
+      </c>
+      <c r="H1094" t="s">
         <v>702</v>
-      </c>
-      <c r="H1094" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="1095" spans="1:8" x14ac:dyDescent="0.45">
@@ -31011,13 +31011,13 @@
         <v>116</v>
       </c>
       <c r="B1095" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C1095">
         <v>4</v>
       </c>
       <c r="D1095" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1095">
         <v>43.666499999999999</v>
@@ -31026,10 +31026,10 @@
         <v>7.2244999999999999</v>
       </c>
       <c r="G1095" t="s">
+        <v>709</v>
+      </c>
+      <c r="H1095" t="s">
         <v>710</v>
-      </c>
-      <c r="H1095" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="1096" spans="1:8" x14ac:dyDescent="0.45">
@@ -31037,13 +31037,13 @@
         <v>116</v>
       </c>
       <c r="B1096" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C1096">
         <v>3</v>
       </c>
       <c r="D1096" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1096">
         <v>48.583799999999997</v>
@@ -31052,10 +31052,10 @@
         <v>7.7473999999999998</v>
       </c>
       <c r="G1096" t="s">
+        <v>712</v>
+      </c>
+      <c r="H1096" t="s">
         <v>713</v>
-      </c>
-      <c r="H1096" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="1097" spans="1:8" x14ac:dyDescent="0.45">
@@ -31063,13 +31063,13 @@
         <v>116</v>
       </c>
       <c r="B1097" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C1097">
         <v>3</v>
       </c>
       <c r="D1097" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1097">
         <v>43.6691</v>
@@ -31078,10 +31078,10 @@
         <v>4.6382000000000003</v>
       </c>
       <c r="G1097" t="s">
+        <v>715</v>
+      </c>
+      <c r="H1097" t="s">
         <v>716</v>
-      </c>
-      <c r="H1097" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="1098" spans="1:8" x14ac:dyDescent="0.45">
@@ -31225,7 +31225,7 @@
         <v>4</v>
       </c>
       <c r="D1103" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1103">
         <v>43.213999999999999</v>
@@ -31237,7 +31237,7 @@
         <v>278</v>
       </c>
       <c r="H1103" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="1104" spans="1:8" x14ac:dyDescent="0.45">
@@ -31245,13 +31245,13 @@
         <v>117</v>
       </c>
       <c r="B1104" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C1104">
         <v>3</v>
       </c>
       <c r="D1104" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1104">
         <v>43.262700000000002</v>
@@ -31260,10 +31260,10 @@
         <v>5.3837999999999999</v>
       </c>
       <c r="G1104" t="s">
+        <v>666</v>
+      </c>
+      <c r="H1104" t="s">
         <v>667</v>
-      </c>
-      <c r="H1104" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="1105" spans="1:8" x14ac:dyDescent="0.45">
@@ -31271,13 +31271,13 @@
         <v>117</v>
       </c>
       <c r="B1105" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C1105">
         <v>4</v>
       </c>
       <c r="D1105" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1105">
         <v>43.314500000000002</v>
@@ -31289,7 +31289,7 @@
         <v>85</v>
       </c>
       <c r="H1105" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="1106" spans="1:8" x14ac:dyDescent="0.45">
@@ -31297,13 +31297,13 @@
         <v>117</v>
       </c>
       <c r="B1106" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C1106">
         <v>4</v>
       </c>
       <c r="D1106" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1106">
         <v>45.762700000000002</v>
@@ -31312,10 +31312,10 @@
         <v>4.8277999999999999</v>
       </c>
       <c r="G1106" t="s">
+        <v>671</v>
+      </c>
+      <c r="H1106" t="s">
         <v>672</v>
-      </c>
-      <c r="H1106" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="1107" spans="1:8" x14ac:dyDescent="0.45">
@@ -31323,13 +31323,13 @@
         <v>117</v>
       </c>
       <c r="B1107" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C1107">
         <v>5</v>
       </c>
       <c r="D1107" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1107">
         <v>45.758099999999999</v>
@@ -31338,10 +31338,10 @@
         <v>4.8183999999999996</v>
       </c>
       <c r="G1107" t="s">
+        <v>674</v>
+      </c>
+      <c r="H1107" t="s">
         <v>675</v>
-      </c>
-      <c r="H1107" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="1108" spans="1:8" x14ac:dyDescent="0.45">
@@ -31349,13 +31349,13 @@
         <v>117</v>
       </c>
       <c r="B1108" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C1108">
         <v>5</v>
       </c>
       <c r="D1108" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1108">
         <v>44.840400000000002</v>
@@ -31364,10 +31364,10 @@
         <v>-0.56999999999999995</v>
       </c>
       <c r="G1108" t="s">
+        <v>701</v>
+      </c>
+      <c r="H1108" t="s">
         <v>702</v>
-      </c>
-      <c r="H1108" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="1109" spans="1:8" x14ac:dyDescent="0.45">
@@ -33403,13 +33403,13 @@
         <v>121</v>
       </c>
       <c r="B1187" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C1187">
         <v>5</v>
       </c>
       <c r="D1187" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1187">
         <v>45.762500000000003</v>
@@ -33418,10 +33418,10 @@
         <v>4.8224999999999998</v>
       </c>
       <c r="G1187" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1187" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="1188" spans="1:8" x14ac:dyDescent="0.45">
@@ -33429,13 +33429,13 @@
         <v>121</v>
       </c>
       <c r="B1188" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C1188">
         <v>5</v>
       </c>
       <c r="D1188" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1188">
         <v>44.840400000000002</v>
@@ -33444,10 +33444,10 @@
         <v>-0.56999999999999995</v>
       </c>
       <c r="G1188" t="s">
+        <v>701</v>
+      </c>
+      <c r="H1188" t="s">
         <v>702</v>
-      </c>
-      <c r="H1188" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="1189" spans="1:8" x14ac:dyDescent="0.45">
@@ -33455,13 +33455,13 @@
         <v>121</v>
       </c>
       <c r="B1189" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C1189">
         <v>4</v>
       </c>
       <c r="D1189" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1189">
         <v>45.764699999999998</v>
@@ -33470,10 +33470,10 @@
         <v>4.8369</v>
       </c>
       <c r="G1189" t="s">
+        <v>704</v>
+      </c>
+      <c r="H1189" t="s">
         <v>705</v>
-      </c>
-      <c r="H1189" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="1190" spans="1:8" x14ac:dyDescent="0.45">
@@ -33845,13 +33845,13 @@
         <v>122</v>
       </c>
       <c r="B1204" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C1204">
         <v>4</v>
       </c>
       <c r="D1204" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1204">
         <v>45.764699999999998</v>
@@ -33860,10 +33860,10 @@
         <v>4.8369</v>
       </c>
       <c r="G1204" t="s">
+        <v>704</v>
+      </c>
+      <c r="H1204" t="s">
         <v>705</v>
-      </c>
-      <c r="H1204" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="1205" spans="1:8" x14ac:dyDescent="0.45">
@@ -33871,13 +33871,13 @@
         <v>122</v>
       </c>
       <c r="B1205" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C1205">
         <v>4</v>
       </c>
       <c r="D1205" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1205">
         <v>43.604500000000002</v>
@@ -33889,7 +33889,7 @@
         <v>628</v>
       </c>
       <c r="H1205" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1206" spans="1:8" x14ac:dyDescent="0.45">
@@ -34235,13 +34235,13 @@
         <v>123</v>
       </c>
       <c r="B1219" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C1219">
         <v>4</v>
       </c>
       <c r="D1219" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1219">
         <v>45.764699999999998</v>
@@ -34250,10 +34250,10 @@
         <v>4.8369</v>
       </c>
       <c r="G1219" t="s">
+        <v>704</v>
+      </c>
+      <c r="H1219" t="s">
         <v>705</v>
-      </c>
-      <c r="H1219" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="1220" spans="1:8" x14ac:dyDescent="0.45">
@@ -34261,13 +34261,13 @@
         <v>123</v>
       </c>
       <c r="B1220" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C1220">
         <v>4</v>
       </c>
       <c r="D1220" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1220">
         <v>43.604500000000002</v>
@@ -34279,7 +34279,7 @@
         <v>628</v>
       </c>
       <c r="H1220" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1221" spans="1:8" x14ac:dyDescent="0.45">
@@ -34449,7 +34449,7 @@
         <v>4</v>
       </c>
       <c r="D1227" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1227">
         <v>43.213999999999999</v>
@@ -34461,7 +34461,7 @@
         <v>278</v>
       </c>
       <c r="H1227" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="1228" spans="1:8" x14ac:dyDescent="0.45">
@@ -34469,13 +34469,13 @@
         <v>124</v>
       </c>
       <c r="B1228" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C1228">
         <v>3</v>
       </c>
       <c r="D1228" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1228">
         <v>43.262700000000002</v>
@@ -34484,10 +34484,10 @@
         <v>5.3837999999999999</v>
       </c>
       <c r="G1228" t="s">
+        <v>666</v>
+      </c>
+      <c r="H1228" t="s">
         <v>667</v>
-      </c>
-      <c r="H1228" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="1229" spans="1:8" x14ac:dyDescent="0.45">
@@ -34495,13 +34495,13 @@
         <v>124</v>
       </c>
       <c r="B1229" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C1229">
         <v>4</v>
       </c>
       <c r="D1229" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1229">
         <v>43.314500000000002</v>
@@ -34513,7 +34513,7 @@
         <v>85</v>
       </c>
       <c r="H1229" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="1230" spans="1:8" x14ac:dyDescent="0.45">
@@ -34521,13 +34521,13 @@
         <v>124</v>
       </c>
       <c r="B1230" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C1230">
         <v>4</v>
       </c>
       <c r="D1230" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1230">
         <v>45.762700000000002</v>
@@ -34536,10 +34536,10 @@
         <v>4.8277999999999999</v>
       </c>
       <c r="G1230" t="s">
+        <v>671</v>
+      </c>
+      <c r="H1230" t="s">
         <v>672</v>
-      </c>
-      <c r="H1230" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="1231" spans="1:8" x14ac:dyDescent="0.45">
@@ -34547,13 +34547,13 @@
         <v>124</v>
       </c>
       <c r="B1231" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C1231">
         <v>4</v>
       </c>
       <c r="D1231" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1231">
         <v>43.604500000000002</v>
@@ -34565,7 +34565,7 @@
         <v>628</v>
       </c>
       <c r="H1231" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1232" spans="1:8" x14ac:dyDescent="0.45">
@@ -34573,13 +34573,13 @@
         <v>124</v>
       </c>
       <c r="B1232" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C1232">
         <v>4</v>
       </c>
       <c r="D1232" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1232">
         <v>43.666499999999999</v>
@@ -34588,10 +34588,10 @@
         <v>7.2244999999999999</v>
       </c>
       <c r="G1232" t="s">
+        <v>709</v>
+      </c>
+      <c r="H1232" t="s">
         <v>710</v>
-      </c>
-      <c r="H1232" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="1233" spans="1:8" x14ac:dyDescent="0.45">
@@ -34599,13 +34599,13 @@
         <v>124</v>
       </c>
       <c r="B1233" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C1233">
         <v>3</v>
       </c>
       <c r="D1233" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1233">
         <v>48.583799999999997</v>
@@ -34614,10 +34614,10 @@
         <v>7.7473999999999998</v>
       </c>
       <c r="G1233" t="s">
+        <v>712</v>
+      </c>
+      <c r="H1233" t="s">
         <v>713</v>
-      </c>
-      <c r="H1233" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="1234" spans="1:8" x14ac:dyDescent="0.45">
@@ -34781,13 +34781,13 @@
         <v>125</v>
       </c>
       <c r="B1240" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C1240">
         <v>5</v>
       </c>
       <c r="D1240" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1240">
         <v>45.758099999999999</v>
@@ -34796,10 +34796,10 @@
         <v>4.8183999999999996</v>
       </c>
       <c r="G1240" t="s">
+        <v>674</v>
+      </c>
+      <c r="H1240" t="s">
         <v>675</v>
-      </c>
-      <c r="H1240" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="1241" spans="1:8" x14ac:dyDescent="0.45">
@@ -34807,13 +34807,13 @@
         <v>125</v>
       </c>
       <c r="B1241" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C1241">
         <v>4</v>
       </c>
       <c r="D1241" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1241">
         <v>45.775300000000001</v>
@@ -34822,10 +34822,10 @@
         <v>4.8319999999999999</v>
       </c>
       <c r="G1241" t="s">
+        <v>677</v>
+      </c>
+      <c r="H1241" t="s">
         <v>678</v>
-      </c>
-      <c r="H1241" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="1242" spans="1:8" x14ac:dyDescent="0.45">
@@ -34833,13 +34833,13 @@
         <v>125</v>
       </c>
       <c r="B1242" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C1242">
         <v>4</v>
       </c>
       <c r="D1242" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1242">
         <v>45.777200000000001</v>
@@ -34848,10 +34848,10 @@
         <v>4.8531000000000004</v>
       </c>
       <c r="G1242" t="s">
+        <v>680</v>
+      </c>
+      <c r="H1242" t="s">
         <v>681</v>
-      </c>
-      <c r="H1242" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="1243" spans="1:8" x14ac:dyDescent="0.45">
@@ -34859,13 +34859,13 @@
         <v>125</v>
       </c>
       <c r="B1243" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C1243">
         <v>4</v>
       </c>
       <c r="D1243" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1243">
         <v>45.733899999999998</v>
@@ -34874,10 +34874,10 @@
         <v>4.8188000000000004</v>
       </c>
       <c r="G1243" t="s">
+        <v>683</v>
+      </c>
+      <c r="H1243" t="s">
         <v>684</v>
-      </c>
-      <c r="H1243" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="1244" spans="1:8" x14ac:dyDescent="0.45">
@@ -34885,13 +34885,13 @@
         <v>125</v>
       </c>
       <c r="B1244" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C1244">
         <v>4</v>
       </c>
       <c r="D1244" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1244">
         <v>43.604500000000002</v>
@@ -34903,7 +34903,7 @@
         <v>628</v>
       </c>
       <c r="H1244" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1245" spans="1:8" x14ac:dyDescent="0.45">
@@ -34911,13 +34911,13 @@
         <v>125</v>
       </c>
       <c r="B1245" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C1245">
         <v>4</v>
       </c>
       <c r="D1245" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1245">
         <v>43.666499999999999</v>
@@ -34926,10 +34926,10 @@
         <v>7.2244999999999999</v>
       </c>
       <c r="G1245" t="s">
+        <v>709</v>
+      </c>
+      <c r="H1245" t="s">
         <v>710</v>
-      </c>
-      <c r="H1245" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="1246" spans="1:8" x14ac:dyDescent="0.45">
@@ -37205,7 +37205,7 @@
         <v>4</v>
       </c>
       <c r="D1333" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1333">
         <v>43.213999999999999</v>
@@ -37217,7 +37217,7 @@
         <v>278</v>
       </c>
       <c r="H1333" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="1334" spans="1:8" x14ac:dyDescent="0.45">
@@ -37225,13 +37225,13 @@
         <v>130</v>
       </c>
       <c r="B1334" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C1334">
         <v>3</v>
       </c>
       <c r="D1334" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1334">
         <v>43.262700000000002</v>
@@ -37240,10 +37240,10 @@
         <v>5.3837999999999999</v>
       </c>
       <c r="G1334" t="s">
+        <v>666</v>
+      </c>
+      <c r="H1334" t="s">
         <v>667</v>
-      </c>
-      <c r="H1334" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="1335" spans="1:8" x14ac:dyDescent="0.45">
@@ -37251,13 +37251,13 @@
         <v>130</v>
       </c>
       <c r="B1335" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C1335">
         <v>4</v>
       </c>
       <c r="D1335" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1335">
         <v>43.314500000000002</v>
@@ -37269,7 +37269,7 @@
         <v>85</v>
       </c>
       <c r="H1335" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="1336" spans="1:8" x14ac:dyDescent="0.45">
@@ -37277,13 +37277,13 @@
         <v>130</v>
       </c>
       <c r="B1336" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C1336">
         <v>4</v>
       </c>
       <c r="D1336" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1336">
         <v>45.762700000000002</v>
@@ -37292,10 +37292,10 @@
         <v>4.8277999999999999</v>
       </c>
       <c r="G1336" t="s">
+        <v>671</v>
+      </c>
+      <c r="H1336" t="s">
         <v>672</v>
-      </c>
-      <c r="H1336" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="1337" spans="1:8" x14ac:dyDescent="0.45">
@@ -37303,13 +37303,13 @@
         <v>130</v>
       </c>
       <c r="B1337" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C1337">
         <v>5</v>
       </c>
       <c r="D1337" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1337">
         <v>45.762500000000003</v>
@@ -37318,10 +37318,10 @@
         <v>4.8224999999999998</v>
       </c>
       <c r="G1337" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1337" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="1338" spans="1:8" x14ac:dyDescent="0.45">
@@ -37329,13 +37329,13 @@
         <v>130</v>
       </c>
       <c r="B1338" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C1338">
         <v>4</v>
       </c>
       <c r="D1338" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1338">
         <v>43.693199999999997</v>
@@ -37344,10 +37344,10 @@
         <v>7.2771999999999997</v>
       </c>
       <c r="G1338" t="s">
+        <v>696</v>
+      </c>
+      <c r="H1338" t="s">
         <v>697</v>
-      </c>
-      <c r="H1338" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="1339" spans="1:8" x14ac:dyDescent="0.45">
@@ -37355,13 +37355,13 @@
         <v>130</v>
       </c>
       <c r="B1339" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C1339">
         <v>5</v>
       </c>
       <c r="D1339" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1339">
         <v>43.696599999999997</v>
@@ -37373,7 +37373,7 @@
         <v>299</v>
       </c>
       <c r="H1339" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="1340" spans="1:8" x14ac:dyDescent="0.45">
@@ -37537,13 +37537,13 @@
         <v>131</v>
       </c>
       <c r="B1346" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C1346">
         <v>4</v>
       </c>
       <c r="D1346" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1346">
         <v>45.775300000000001</v>
@@ -37552,10 +37552,10 @@
         <v>4.8319999999999999</v>
       </c>
       <c r="G1346" t="s">
+        <v>677</v>
+      </c>
+      <c r="H1346" t="s">
         <v>678</v>
-      </c>
-      <c r="H1346" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="1347" spans="1:8" x14ac:dyDescent="0.45">
@@ -37563,13 +37563,13 @@
         <v>131</v>
       </c>
       <c r="B1347" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C1347">
         <v>4</v>
       </c>
       <c r="D1347" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1347">
         <v>45.777200000000001</v>
@@ -37578,10 +37578,10 @@
         <v>4.8531000000000004</v>
       </c>
       <c r="G1347" t="s">
+        <v>680</v>
+      </c>
+      <c r="H1347" t="s">
         <v>681</v>
-      </c>
-      <c r="H1347" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="1348" spans="1:8" x14ac:dyDescent="0.45">
@@ -37589,13 +37589,13 @@
         <v>131</v>
       </c>
       <c r="B1348" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C1348">
         <v>4</v>
       </c>
       <c r="D1348" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1348">
         <v>45.733899999999998</v>
@@ -37604,10 +37604,10 @@
         <v>4.8188000000000004</v>
       </c>
       <c r="G1348" t="s">
+        <v>683</v>
+      </c>
+      <c r="H1348" t="s">
         <v>684</v>
-      </c>
-      <c r="H1348" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="1349" spans="1:8" x14ac:dyDescent="0.45">
@@ -37615,13 +37615,13 @@
         <v>131</v>
       </c>
       <c r="B1349" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C1349">
         <v>4</v>
       </c>
       <c r="D1349" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1349">
         <v>45.767499999999998</v>
@@ -37630,10 +37630,10 @@
         <v>4.8349000000000002</v>
       </c>
       <c r="G1349" t="s">
+        <v>686</v>
+      </c>
+      <c r="H1349" t="s">
         <v>687</v>
-      </c>
-      <c r="H1349" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="1350" spans="1:8" x14ac:dyDescent="0.45">
@@ -37641,13 +37641,13 @@
         <v>131</v>
       </c>
       <c r="B1350" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C1350">
         <v>4</v>
       </c>
       <c r="D1350" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1350">
         <v>45.757899999999999</v>
@@ -37659,7 +37659,7 @@
         <v>486</v>
       </c>
       <c r="H1350" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="1351" spans="1:8" x14ac:dyDescent="0.45">
@@ -37667,13 +37667,13 @@
         <v>131</v>
       </c>
       <c r="B1351" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C1351">
         <v>4</v>
       </c>
       <c r="D1351" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1351">
         <v>43.604500000000002</v>
@@ -37685,7 +37685,7 @@
         <v>628</v>
       </c>
       <c r="H1351" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1352" spans="1:8" x14ac:dyDescent="0.45">
@@ -37693,13 +37693,13 @@
         <v>131</v>
       </c>
       <c r="B1352" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C1352">
         <v>4</v>
       </c>
       <c r="D1352" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1352">
         <v>43.666499999999999</v>
@@ -37708,10 +37708,10 @@
         <v>7.2244999999999999</v>
       </c>
       <c r="G1352" t="s">
+        <v>709</v>
+      </c>
+      <c r="H1352" t="s">
         <v>710</v>
-      </c>
-      <c r="H1352" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="1353" spans="1:8" x14ac:dyDescent="0.45">
@@ -38369,13 +38369,13 @@
         <v>132</v>
       </c>
       <c r="B1378" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C1378">
         <v>5</v>
       </c>
       <c r="D1378" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1378">
         <v>45.762500000000003</v>
@@ -38384,10 +38384,10 @@
         <v>4.8224999999999998</v>
       </c>
       <c r="G1378" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1378" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="1379" spans="1:8" x14ac:dyDescent="0.45">
@@ -38395,13 +38395,13 @@
         <v>132</v>
       </c>
       <c r="B1379" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C1379">
         <v>5</v>
       </c>
       <c r="D1379" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1379">
         <v>44.840400000000002</v>
@@ -38410,10 +38410,10 @@
         <v>-0.56999999999999995</v>
       </c>
       <c r="G1379" t="s">
+        <v>701</v>
+      </c>
+      <c r="H1379" t="s">
         <v>702</v>
-      </c>
-      <c r="H1379" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="1380" spans="1:8" x14ac:dyDescent="0.45">
@@ -38421,13 +38421,13 @@
         <v>132</v>
       </c>
       <c r="B1380" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C1380">
         <v>4</v>
       </c>
       <c r="D1380" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1380">
         <v>45.764699999999998</v>
@@ -38436,10 +38436,10 @@
         <v>4.8369</v>
       </c>
       <c r="G1380" t="s">
+        <v>704</v>
+      </c>
+      <c r="H1380" t="s">
         <v>705</v>
-      </c>
-      <c r="H1380" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="1381" spans="1:8" x14ac:dyDescent="0.45">
@@ -39071,13 +39071,13 @@
         <v>134</v>
       </c>
       <c r="B1405" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C1405">
         <v>3</v>
       </c>
       <c r="D1405" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1405">
         <v>43.262700000000002</v>
@@ -39086,10 +39086,10 @@
         <v>5.3837999999999999</v>
       </c>
       <c r="G1405" t="s">
+        <v>666</v>
+      </c>
+      <c r="H1405" t="s">
         <v>667</v>
-      </c>
-      <c r="H1405" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="1406" spans="1:8" x14ac:dyDescent="0.45">
@@ -39097,13 +39097,13 @@
         <v>134</v>
       </c>
       <c r="B1406" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C1406">
         <v>4</v>
       </c>
       <c r="D1406" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1406">
         <v>43.314500000000002</v>
@@ -39115,7 +39115,7 @@
         <v>85</v>
       </c>
       <c r="H1406" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="1407" spans="1:8" x14ac:dyDescent="0.45">
@@ -39123,13 +39123,13 @@
         <v>134</v>
       </c>
       <c r="B1407" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C1407">
         <v>4</v>
       </c>
       <c r="D1407" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1407">
         <v>45.762700000000002</v>
@@ -39138,10 +39138,10 @@
         <v>4.8277999999999999</v>
       </c>
       <c r="G1407" t="s">
+        <v>671</v>
+      </c>
+      <c r="H1407" t="s">
         <v>672</v>
-      </c>
-      <c r="H1407" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="1408" spans="1:8" x14ac:dyDescent="0.45">
@@ -39149,13 +39149,13 @@
         <v>134</v>
       </c>
       <c r="B1408" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C1408">
         <v>5</v>
       </c>
       <c r="D1408" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1408">
         <v>45.758099999999999</v>
@@ -39164,10 +39164,10 @@
         <v>4.8183999999999996</v>
       </c>
       <c r="G1408" t="s">
+        <v>674</v>
+      </c>
+      <c r="H1408" t="s">
         <v>675</v>
-      </c>
-      <c r="H1408" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="1409" spans="1:8" x14ac:dyDescent="0.45">
@@ -39175,13 +39175,13 @@
         <v>134</v>
       </c>
       <c r="B1409" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C1409">
         <v>4</v>
       </c>
       <c r="D1409" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1409">
         <v>45.775300000000001</v>
@@ -39190,10 +39190,10 @@
         <v>4.8319999999999999</v>
       </c>
       <c r="G1409" t="s">
+        <v>677</v>
+      </c>
+      <c r="H1409" t="s">
         <v>678</v>
-      </c>
-      <c r="H1409" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="1410" spans="1:8" x14ac:dyDescent="0.45">
@@ -39201,13 +39201,13 @@
         <v>134</v>
       </c>
       <c r="B1410" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C1410">
         <v>5</v>
       </c>
       <c r="D1410" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1410">
         <v>45.762500000000003</v>
@@ -39216,10 +39216,10 @@
         <v>4.8224999999999998</v>
       </c>
       <c r="G1410" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1410" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="1411" spans="1:8" x14ac:dyDescent="0.45">
@@ -39227,13 +39227,13 @@
         <v>134</v>
       </c>
       <c r="B1411" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C1411">
         <v>4</v>
       </c>
       <c r="D1411" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1411">
         <v>43.693199999999997</v>
@@ -39242,10 +39242,10 @@
         <v>7.2771999999999997</v>
       </c>
       <c r="G1411" t="s">
+        <v>696</v>
+      </c>
+      <c r="H1411" t="s">
         <v>697</v>
-      </c>
-      <c r="H1411" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="1412" spans="1:8" x14ac:dyDescent="0.45">
@@ -39253,13 +39253,13 @@
         <v>134</v>
       </c>
       <c r="B1412" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C1412">
         <v>5</v>
       </c>
       <c r="D1412" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1412">
         <v>43.696599999999997</v>
@@ -39271,7 +39271,7 @@
         <v>299</v>
       </c>
       <c r="H1412" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="1413" spans="1:8" x14ac:dyDescent="0.45">
@@ -39435,13 +39435,13 @@
         <v>135</v>
       </c>
       <c r="B1419" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C1419">
         <v>4</v>
       </c>
       <c r="D1419" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1419">
         <v>43.314500000000002</v>
@@ -39453,7 +39453,7 @@
         <v>85</v>
       </c>
       <c r="H1419" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="1420" spans="1:8" x14ac:dyDescent="0.45">
@@ -39461,13 +39461,13 @@
         <v>135</v>
       </c>
       <c r="B1420" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C1420">
         <v>4</v>
       </c>
       <c r="D1420" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1420">
         <v>45.762700000000002</v>
@@ -39476,10 +39476,10 @@
         <v>4.8277999999999999</v>
       </c>
       <c r="G1420" t="s">
+        <v>671</v>
+      </c>
+      <c r="H1420" t="s">
         <v>672</v>
-      </c>
-      <c r="H1420" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="1421" spans="1:8" x14ac:dyDescent="0.45">
@@ -39487,13 +39487,13 @@
         <v>135</v>
       </c>
       <c r="B1421" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C1421">
         <v>4</v>
       </c>
       <c r="D1421" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1421">
         <v>45.767499999999998</v>
@@ -39502,10 +39502,10 @@
         <v>4.8349000000000002</v>
       </c>
       <c r="G1421" t="s">
+        <v>686</v>
+      </c>
+      <c r="H1421" t="s">
         <v>687</v>
-      </c>
-      <c r="H1421" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="1422" spans="1:8" x14ac:dyDescent="0.45">
@@ -39513,13 +39513,13 @@
         <v>135</v>
       </c>
       <c r="B1422" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C1422">
         <v>4</v>
       </c>
       <c r="D1422" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1422">
         <v>45.757899999999999</v>
@@ -39531,7 +39531,7 @@
         <v>486</v>
       </c>
       <c r="H1422" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="1423" spans="1:8" x14ac:dyDescent="0.45">
@@ -39539,13 +39539,13 @@
         <v>135</v>
       </c>
       <c r="B1423" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C1423">
         <v>3</v>
       </c>
       <c r="D1423" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1423">
         <v>45.758099999999999</v>
@@ -39554,10 +39554,10 @@
         <v>4.8331</v>
       </c>
       <c r="G1423" t="s">
+        <v>691</v>
+      </c>
+      <c r="H1423" t="s">
         <v>692</v>
-      </c>
-      <c r="H1423" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="1424" spans="1:8" x14ac:dyDescent="0.45">
@@ -39565,13 +39565,13 @@
         <v>135</v>
       </c>
       <c r="B1424" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C1424">
         <v>4</v>
       </c>
       <c r="D1424" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1424">
         <v>45.764699999999998</v>
@@ -39580,10 +39580,10 @@
         <v>4.8369</v>
       </c>
       <c r="G1424" t="s">
+        <v>704</v>
+      </c>
+      <c r="H1424" t="s">
         <v>705</v>
-      </c>
-      <c r="H1424" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="1425" spans="1:8" x14ac:dyDescent="0.45">
@@ -40039,7 +40039,7 @@
         <v>4</v>
       </c>
       <c r="D1442" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1442">
         <v>43.213999999999999</v>
@@ -40051,7 +40051,7 @@
         <v>278</v>
       </c>
       <c r="H1442" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="1443" spans="1:8" x14ac:dyDescent="0.45">
@@ -40059,13 +40059,13 @@
         <v>136</v>
       </c>
       <c r="B1443" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C1443">
         <v>3</v>
       </c>
       <c r="D1443" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1443">
         <v>43.262700000000002</v>
@@ -40074,10 +40074,10 @@
         <v>5.3837999999999999</v>
       </c>
       <c r="G1443" t="s">
+        <v>666</v>
+      </c>
+      <c r="H1443" t="s">
         <v>667</v>
-      </c>
-      <c r="H1443" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="1444" spans="1:8" x14ac:dyDescent="0.45">
@@ -40085,13 +40085,13 @@
         <v>136</v>
       </c>
       <c r="B1444" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C1444">
         <v>4</v>
       </c>
       <c r="D1444" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1444">
         <v>43.314500000000002</v>
@@ -40103,7 +40103,7 @@
         <v>85</v>
       </c>
       <c r="H1444" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="1445" spans="1:8" x14ac:dyDescent="0.45">
@@ -40111,13 +40111,13 @@
         <v>136</v>
       </c>
       <c r="B1445" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C1445">
         <v>5</v>
       </c>
       <c r="D1445" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1445">
         <v>43.696599999999997</v>
@@ -40129,7 +40129,7 @@
         <v>299</v>
       </c>
       <c r="H1445" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="1446" spans="1:8" x14ac:dyDescent="0.45">
@@ -40137,13 +40137,13 @@
         <v>136</v>
       </c>
       <c r="B1446" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C1446">
         <v>5</v>
       </c>
       <c r="D1446" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1446">
         <v>44.840400000000002</v>
@@ -40152,10 +40152,10 @@
         <v>-0.56999999999999995</v>
       </c>
       <c r="G1446" t="s">
+        <v>701</v>
+      </c>
+      <c r="H1446" t="s">
         <v>702</v>
-      </c>
-      <c r="H1446" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="1447" spans="1:8" x14ac:dyDescent="0.45">
@@ -40163,13 +40163,13 @@
         <v>136</v>
       </c>
       <c r="B1447" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C1447">
         <v>4</v>
       </c>
       <c r="D1447" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1447">
         <v>45.764699999999998</v>
@@ -40178,10 +40178,10 @@
         <v>4.8369</v>
       </c>
       <c r="G1447" t="s">
+        <v>704</v>
+      </c>
+      <c r="H1447" t="s">
         <v>705</v>
-      </c>
-      <c r="H1447" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="1448" spans="1:8" x14ac:dyDescent="0.45">
@@ -40455,7 +40455,7 @@
         <v>4</v>
       </c>
       <c r="D1458" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1458">
         <v>43.213999999999999</v>
@@ -40467,7 +40467,7 @@
         <v>278</v>
       </c>
       <c r="H1458" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="1459" spans="1:8" x14ac:dyDescent="0.45">
@@ -40475,13 +40475,13 @@
         <v>137</v>
       </c>
       <c r="B1459" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C1459">
         <v>3</v>
       </c>
       <c r="D1459" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1459">
         <v>43.262700000000002</v>
@@ -40490,10 +40490,10 @@
         <v>5.3837999999999999</v>
       </c>
       <c r="G1459" t="s">
+        <v>666</v>
+      </c>
+      <c r="H1459" t="s">
         <v>667</v>
-      </c>
-      <c r="H1459" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="1460" spans="1:8" x14ac:dyDescent="0.45">
@@ -40501,13 +40501,13 @@
         <v>137</v>
       </c>
       <c r="B1460" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C1460">
         <v>5</v>
       </c>
       <c r="D1460" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1460">
         <v>45.758099999999999</v>
@@ -40516,10 +40516,10 @@
         <v>4.8183999999999996</v>
       </c>
       <c r="G1460" t="s">
+        <v>674</v>
+      </c>
+      <c r="H1460" t="s">
         <v>675</v>
-      </c>
-      <c r="H1460" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="1461" spans="1:8" x14ac:dyDescent="0.45">
@@ -40527,13 +40527,13 @@
         <v>137</v>
       </c>
       <c r="B1461" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C1461">
         <v>5</v>
       </c>
       <c r="D1461" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1461">
         <v>45.762500000000003</v>
@@ -40542,10 +40542,10 @@
         <v>4.8224999999999998</v>
       </c>
       <c r="G1461" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1461" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="1462" spans="1:8" x14ac:dyDescent="0.45">
@@ -40553,13 +40553,13 @@
         <v>137</v>
       </c>
       <c r="B1462" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C1462">
         <v>4</v>
       </c>
       <c r="D1462" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1462">
         <v>43.693199999999997</v>
@@ -40568,10 +40568,10 @@
         <v>7.2771999999999997</v>
       </c>
       <c r="G1462" t="s">
+        <v>696</v>
+      </c>
+      <c r="H1462" t="s">
         <v>697</v>
-      </c>
-      <c r="H1462" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="1463" spans="1:8" x14ac:dyDescent="0.45">
@@ -40579,13 +40579,13 @@
         <v>137</v>
       </c>
       <c r="B1463" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C1463">
         <v>3</v>
       </c>
       <c r="D1463" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1463">
         <v>48.583799999999997</v>
@@ -40594,10 +40594,10 @@
         <v>7.7473999999999998</v>
       </c>
       <c r="G1463" t="s">
+        <v>712</v>
+      </c>
+      <c r="H1463" t="s">
         <v>713</v>
-      </c>
-      <c r="H1463" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="1464" spans="1:8" x14ac:dyDescent="0.45">
@@ -40605,13 +40605,13 @@
         <v>137</v>
       </c>
       <c r="B1464" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C1464">
         <v>3</v>
       </c>
       <c r="D1464" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1464">
         <v>43.6691</v>
@@ -40620,10 +40620,10 @@
         <v>4.6382000000000003</v>
       </c>
       <c r="G1464" t="s">
+        <v>715</v>
+      </c>
+      <c r="H1464" t="s">
         <v>716</v>
-      </c>
-      <c r="H1464" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="1465" spans="1:8" x14ac:dyDescent="0.45">
@@ -41229,13 +41229,13 @@
         <v>138</v>
       </c>
       <c r="B1488" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C1488">
         <v>5</v>
       </c>
       <c r="D1488" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1488">
         <v>45.762500000000003</v>
@@ -41244,10 +41244,10 @@
         <v>4.8224999999999998</v>
       </c>
       <c r="G1488" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1488" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="1489" spans="1:8" x14ac:dyDescent="0.45">
@@ -41255,13 +41255,13 @@
         <v>138</v>
       </c>
       <c r="B1489" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C1489">
         <v>5</v>
       </c>
       <c r="D1489" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1489">
         <v>44.840400000000002</v>
@@ -41270,10 +41270,10 @@
         <v>-0.56999999999999995</v>
       </c>
       <c r="G1489" t="s">
+        <v>701</v>
+      </c>
+      <c r="H1489" t="s">
         <v>702</v>
-      </c>
-      <c r="H1489" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="1490" spans="1:8" x14ac:dyDescent="0.45">
@@ -41281,13 +41281,13 @@
         <v>138</v>
       </c>
       <c r="B1490" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C1490">
         <v>4</v>
       </c>
       <c r="D1490" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1490">
         <v>45.764699999999998</v>
@@ -41296,10 +41296,10 @@
         <v>4.8369</v>
       </c>
       <c r="G1490" t="s">
+        <v>704</v>
+      </c>
+      <c r="H1490" t="s">
         <v>705</v>
-      </c>
-      <c r="H1490" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="1491" spans="1:8" x14ac:dyDescent="0.45">
@@ -41307,13 +41307,13 @@
         <v>138</v>
       </c>
       <c r="B1491" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C1491">
         <v>4</v>
       </c>
       <c r="D1491" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="E1491">
         <v>43.604500000000002</v>
@@ -41325,7 +41325,7 @@
         <v>628</v>
       </c>
       <c r="H1491" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
   </sheetData>
